--- a/doc/enrichments/quick_reference_enrichment_enable_disable.xlsx
+++ b/doc/enrichments/quick_reference_enrichment_enable_disable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b412441\Documents\GitHub\logindexer-pipeline\config\enrichments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e623378/OneDrive - Cargill Inc/GitHub/TGRC-Ops/logindexer-pipeline/doc/enrichments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA1ED09-5CDC-418B-802C-6A515F11F0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E30E9B-5C9D-244E-B3EB-449F05C7AD72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5F11F55-4D79-4AEA-8298-65CB0180B241}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F5F11F55-4D79-4AEA-8298-65CB0180B241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>disable_dns_enrichment</t>
   </si>
   <si>
-    <t>diable/enable specific</t>
-  </si>
-  <si>
     <t>enable_log_original</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>998_remove_tags.conf</t>
+  </si>
+  <si>
+    <t>disable/enable specific</t>
   </si>
 </sst>
 </file>
@@ -566,39 +566,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB2CC1-8585-44DA-B79B-45BF36891EEC}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -616,7 +616,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -634,7 +634,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -652,7 +652,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -660,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -688,7 +688,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -705,7 +705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -722,15 +722,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -747,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -756,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -782,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -802,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -825,15 +825,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -843,15 +843,15 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -861,15 +861,15 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -879,15 +879,15 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -897,26 +897,26 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
